--- a/CASUAL/LA PICNIC GROVE/SALAZAR, JOSIELYN.xlsx
+++ b/CASUAL/LA PICNIC GROVE/SALAZAR, JOSIELYN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="100">
   <si>
     <t>PERIOD</t>
   </si>
@@ -319,6 +319,24 @@
   </si>
   <si>
     <t>UT(0-0-13)</t>
+  </si>
+  <si>
+    <t>UT(0-1-21)</t>
+  </si>
+  <si>
+    <t>UT(0-0-28)</t>
+  </si>
+  <si>
+    <t>UT(0-0-9)</t>
+  </si>
+  <si>
+    <t>UT(0-0-14)</t>
+  </si>
+  <si>
+    <t>UT(0-1-6)</t>
+  </si>
+  <si>
+    <t>UT(0-1-15)</t>
   </si>
 </sst>
 </file>
@@ -3373,7 +3391,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A60" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3534,7 +3552,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>58.610999999999997</v>
+        <v>58.042999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4695,11 +4713,15 @@
       <c r="A66" s="40">
         <v>44621</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="39"/>
+      <c r="D66" s="39">
+        <v>0.15600000000000003</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -4715,11 +4737,15 @@
       <c r="A67" s="40">
         <v>44652</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="39"/>
+      <c r="D67" s="39">
+        <v>0.13700000000000001</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -4755,11 +4781,15 @@
       <c r="A69" s="40">
         <v>44713</v>
       </c>
-      <c r="B69" s="20"/>
+      <c r="B69" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
-      <c r="D69" s="39"/>
+      <c r="D69" s="39">
+        <v>2.9000000000000012E-2</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
@@ -4775,11 +4805,15 @@
       <c r="A70" s="40">
         <v>44743</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="39"/>
+      <c r="D70" s="39">
+        <v>1.9000000000000003E-2</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -4795,11 +4829,15 @@
       <c r="A71" s="40">
         <v>44774</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="39"/>
+      <c r="D71" s="39">
+        <v>5.8000000000000017E-2</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
@@ -4815,11 +4853,15 @@
       <c r="A72" s="40">
         <v>44805</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="39"/>
+      <c r="D72" s="39">
+        <v>0.16900000000000001</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -8507,13 +8549,15 @@
         <v>116.791</v>
       </c>
       <c r="D3"/>
-      <c r="E3"/>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.700000000000001E-2</v>
+        <v>0.15600000000000003</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
